--- a/verifications/mepc_79_5_miscalculation.xlsx
+++ b/verifications/mepc_79_5_miscalculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeWilson\projects_new\eedi_calculator\verifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\EEDIPy\verifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3737F4E-60AF-4221-9201-52584C5AF5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F587EE-038B-4AA8-B50F-D5E178638E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{6FB58C3F-B217-4C49-AC59-E57EB46AB61C}"/>
+    <workbookView xWindow="23280" yWindow="2760" windowWidth="21600" windowHeight="15435" xr2:uid="{6FB58C3F-B217-4C49-AC59-E57EB46AB61C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -307,13 +307,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -336,9 +342,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,587 +682,588 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C37740F-EB28-4949-952E-B3E8D63E0DFE}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>81200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f>0.75*MCRMEMDO</f>
         <v>3750</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>0.75*MCRMELNG</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f>0.05*(MCRMEMDO+MCRMELNG)</f>
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>3.206</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>3.206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>2.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>3.206</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>991</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>48000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>40200</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>42700</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0.98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <f>((PMEMDO+PMELNG+PAE)/(PMELNG+PAE))*(VLNG*rhoLNG*LCVLNG*KLNG)/((VHFO*rhoHFO*LCVHFO*KHFO)+(VMDO*rhoMDO*LCVMDO*KMDO)+(VLNG*rhoLNG*LCVLNG*KLNG))</f>
         <v>0.34616590765320943</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <f>1-fDFgas</f>
         <v>0.65383409234679057</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <f>((PMELNG*(fDFgas*((CFPilotfuel*SFCMEPilotfuel)+(CFLNG*
 SFCDF_LNG))+fDFliquid*CFMDO*SFCDF_MDO))+PMEMDO*CFMDO*
 SFCME_MDO+(PAE*(fDFgas*((CFAEPilotfuel*SFCAEPilotfuel)+
